--- a/tsn_manage/second_bad_tiles_out_prototype.xlsx
+++ b/tsn_manage/second_bad_tiles_out_prototype.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/codes/sipm-database/tsn_manage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanghanwen/codes/sipm-database/tsn_manage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E1EC3A7-2E5A-AA4A-9FB0-CDC390B35CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E323D0-BD3A-F846-89EA-22C2DE6F8E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>tsn</t>
   </si>
@@ -61,6 +61,12 @@
     <t>兼容性测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>兼容性测试</t>
+  </si>
+  <si>
+    <t>新连接器，没找到</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +76,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,7 +89,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -92,7 +98,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -183,7 +189,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,7 +501,7 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -7530,13 +7536,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E92AD9-F10C-7442-99A2-B0724B0DA0AC}">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3" customWidth="1"/>
     <col min="2" max="6" width="10.83203125" style="3"/>
@@ -7615,7 +7621,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -7629,7 +7635,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7643,7 +7649,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7657,7 +7663,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7671,7 +7677,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7685,7 +7691,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -7705,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7719,7 +7725,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -7739,7 +7745,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -7758,11 +7764,11 @@
       <c r="C13" s="4">
         <v>15</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
@@ -7777,7 +7783,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -7797,7 +7803,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -7816,12 +7822,12 @@
       <c r="C16" s="4">
         <v>22</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
@@ -7835,7 +7841,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -7855,7 +7861,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -7875,7 +7881,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -7895,7 +7901,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -7915,7 +7921,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7929,7 +7935,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -7949,7 +7955,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -7987,7 +7993,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -8007,7 +8013,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -8027,7 +8033,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -8047,7 +8053,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -8067,7 +8073,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -8087,7 +8093,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -8125,7 +8131,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -8145,7 +8151,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -8165,7 +8171,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -8185,7 +8191,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -8205,7 +8211,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -8225,7 +8231,7 @@
         <v>49</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -8245,7 +8251,7 @@
         <v>50</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -8265,7 +8271,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -8285,7 +8291,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -8305,7 +8311,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -8325,7 +8331,7 @@
         <v>51</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -8344,11 +8350,11 @@
       <c r="C43" s="4">
         <v>54</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
@@ -8362,8 +8368,8 @@
       <c r="C44" s="5">
         <v>54</v>
       </c>
-      <c r="F44" s="3">
-        <v>1</v>
+      <c r="D44" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8377,7 +8383,7 @@
         <v>55</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -8391,7 +8397,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -8476,11 +8482,11 @@
       <c r="C51" s="4">
         <v>78</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
+      <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
@@ -8602,9 +8608,6 @@
       <c r="C58" s="5">
         <v>90</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
@@ -8887,12 +8890,12 @@
       <c r="C75" s="4">
         <v>134</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8">
@@ -8905,6 +8908,9 @@
       <c r="C76" s="6">
         <v>134</v>
       </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6">
@@ -8916,8 +8922,8 @@
       <c r="C77" s="6">
         <v>137</v>
       </c>
-      <c r="G77" s="3">
-        <v>1</v>
+      <c r="G77" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -9458,7 +9464,7 @@
         <v>81</v>
       </c>
       <c r="D109" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -9476,7 +9482,7 @@
         <v>82</v>
       </c>
       <c r="D110" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -9494,7 +9500,7 @@
         <v>88</v>
       </c>
       <c r="D111" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -9512,7 +9518,7 @@
         <v>91</v>
       </c>
       <c r="D112" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -9530,7 +9536,7 @@
         <v>91</v>
       </c>
       <c r="D113" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -9548,7 +9554,7 @@
         <v>91</v>
       </c>
       <c r="D114" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -9566,7 +9572,7 @@
         <v>94</v>
       </c>
       <c r="D115" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -9584,7 +9590,7 @@
         <v>94</v>
       </c>
       <c r="D116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9598,7 +9604,7 @@
         <v>95</v>
       </c>
       <c r="D117" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -9616,7 +9622,7 @@
         <v>96</v>
       </c>
       <c r="D118" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -9634,7 +9640,7 @@
         <v>97</v>
       </c>
       <c r="D119" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -9652,7 +9658,7 @@
         <v>106</v>
       </c>
       <c r="D120" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -9670,7 +9676,7 @@
         <v>108</v>
       </c>
       <c r="D121" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9684,7 +9690,7 @@
         <v>113</v>
       </c>
       <c r="D122" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9698,7 +9704,7 @@
         <v>128</v>
       </c>
       <c r="D123" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9712,7 +9718,7 @@
         <v>128</v>
       </c>
       <c r="D124" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9726,7 +9732,7 @@
         <v>132</v>
       </c>
       <c r="D125" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -9744,7 +9750,7 @@
         <v>137</v>
       </c>
       <c r="D126" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -9762,7 +9768,7 @@
         <v>138</v>
       </c>
       <c r="D127" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -9780,7 +9786,7 @@
         <v>146</v>
       </c>
       <c r="D128" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -9798,7 +9804,7 @@
         <v>147</v>
       </c>
       <c r="D129" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -9816,7 +9822,7 @@
         <v>149</v>
       </c>
       <c r="D130" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -9834,7 +9840,7 @@
         <v>150</v>
       </c>
       <c r="D131" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9848,7 +9854,7 @@
         <v>150</v>
       </c>
       <c r="D132" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -9866,7 +9872,7 @@
         <v>150</v>
       </c>
       <c r="D133" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -9884,7 +9890,7 @@
         <v>154</v>
       </c>
       <c r="D134" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9898,7 +9904,7 @@
         <v>155</v>
       </c>
       <c r="D135" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -9907,304 +9913,300 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="4">
-        <v>4591</v>
+        <v>4641</v>
       </c>
       <c r="B136" s="4">
         <v>3</v>
       </c>
       <c r="C136" s="4">
-        <v>3</v>
-      </c>
-      <c r="D136" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D136" s="4">
+        <v>2</v>
+      </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="4">
-        <v>1</v>
-      </c>
+      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="4">
-        <v>4592</v>
+        <v>4646</v>
       </c>
       <c r="B137" s="4">
         <v>3</v>
       </c>
       <c r="C137" s="4">
-        <v>3</v>
-      </c>
-      <c r="D137" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D137" s="4">
+        <v>2</v>
+      </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="4">
-        <v>1</v>
-      </c>
+      <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="4">
-        <v>4593</v>
+        <v>4648</v>
       </c>
       <c r="B138" s="4">
         <v>3</v>
       </c>
       <c r="C138" s="4">
-        <v>3</v>
-      </c>
-      <c r="D138" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D138" s="4">
+        <v>2</v>
+      </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="4">
-        <v>1</v>
-      </c>
+      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="4">
-        <v>4595</v>
+        <v>4523</v>
       </c>
       <c r="B139" s="4">
         <v>3</v>
       </c>
       <c r="C139" s="4">
-        <v>3</v>
-      </c>
-      <c r="D139" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D139" s="4">
+        <v>2</v>
+      </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="4">
-        <v>1</v>
-      </c>
+      <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="4">
-        <v>4596</v>
+        <v>4526</v>
       </c>
       <c r="B140" s="4">
         <v>3</v>
       </c>
       <c r="C140" s="4">
-        <v>3</v>
-      </c>
-      <c r="D140" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D140" s="4">
+        <v>2</v>
+      </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="4">
-        <v>1</v>
-      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="4">
-        <v>4598</v>
+        <v>4701</v>
       </c>
       <c r="B141" s="4">
         <v>3</v>
       </c>
       <c r="C141" s="4">
-        <v>3</v>
-      </c>
-      <c r="D141" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D141" s="4">
+        <v>2</v>
+      </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="4">
-        <v>1</v>
-      </c>
+      <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="4">
-        <v>4607</v>
-      </c>
-      <c r="B142" s="4">
-        <v>3</v>
-      </c>
-      <c r="C142" s="4">
-        <v>4</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4">
-        <v>1</v>
-      </c>
-      <c r="H142" s="4"/>
+      <c r="A142" s="5">
+        <v>4719</v>
+      </c>
+      <c r="B142" s="5">
+        <v>3</v>
+      </c>
+      <c r="C142" s="5">
+        <v>15</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="4">
-        <v>4608</v>
+        <v>4651</v>
       </c>
       <c r="B143" s="4">
         <v>3</v>
       </c>
       <c r="C143" s="4">
-        <v>4</v>
-      </c>
-      <c r="D143" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D143" s="4">
+        <v>2</v>
+      </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4">
-        <v>1</v>
-      </c>
+      <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="4">
-        <v>4609</v>
+        <v>4652</v>
       </c>
       <c r="B144" s="4">
         <v>3</v>
       </c>
       <c r="C144" s="4">
-        <v>4</v>
-      </c>
-      <c r="D144" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="D144" s="4">
+        <v>2</v>
+      </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="4">
-        <v>1</v>
-      </c>
+      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="4">
-        <v>4626</v>
+        <v>4661</v>
       </c>
       <c r="B145" s="4">
         <v>3</v>
       </c>
       <c r="C145" s="4">
-        <v>6</v>
-      </c>
-      <c r="D145" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D145" s="4">
+        <v>2</v>
+      </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="4">
-        <v>1</v>
-      </c>
+      <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="4">
-        <v>4627</v>
+        <v>4662</v>
       </c>
       <c r="B146" s="4">
         <v>3</v>
       </c>
       <c r="C146" s="4">
-        <v>6</v>
-      </c>
-      <c r="D146" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D146" s="4">
+        <v>2</v>
+      </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="4">
-        <v>1</v>
-      </c>
+      <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="4">
-        <v>4629</v>
+        <v>4665</v>
       </c>
       <c r="B147" s="4">
         <v>3</v>
       </c>
       <c r="C147" s="4">
-        <v>6</v>
-      </c>
-      <c r="D147" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D147" s="4">
+        <v>2</v>
+      </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="4">
-        <v>1</v>
-      </c>
+      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="4">
-        <v>4630</v>
+        <v>4676</v>
       </c>
       <c r="B148" s="4">
         <v>3</v>
       </c>
       <c r="C148" s="4">
-        <v>6</v>
-      </c>
-      <c r="D148" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D148" s="4">
+        <v>2</v>
+      </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4">
-        <v>1</v>
-      </c>
+      <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="4">
-        <v>4631</v>
+        <v>4681</v>
       </c>
       <c r="B149" s="4">
         <v>3</v>
       </c>
       <c r="C149" s="4">
-        <v>7</v>
-      </c>
-      <c r="D149" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2</v>
+      </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="4">
-        <v>1</v>
-      </c>
+      <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="4">
-        <v>4639</v>
+        <v>4547</v>
       </c>
       <c r="B150" s="4">
         <v>3</v>
       </c>
       <c r="C150" s="4">
-        <v>7</v>
-      </c>
-      <c r="D150" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="D150" s="4">
+        <v>2</v>
+      </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="4">
-        <v>1</v>
-      </c>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="4">
-        <v>4640</v>
+        <v>4737</v>
       </c>
       <c r="B151" s="4">
         <v>3</v>
       </c>
       <c r="C151" s="4">
-        <v>7</v>
-      </c>
-      <c r="D151" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D151" s="4">
+        <v>2</v>
+      </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4">
-        <v>1</v>
-      </c>
+      <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="4">
-        <v>4641</v>
+        <v>4740</v>
       </c>
       <c r="B152" s="4">
         <v>3</v>
       </c>
       <c r="C152" s="4">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D152" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -10213,16 +10215,16 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="4">
-        <v>4646</v>
+        <v>4744</v>
       </c>
       <c r="B153" s="4">
         <v>3</v>
       </c>
       <c r="C153" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D153" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -10231,16 +10233,16 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="4">
-        <v>4648</v>
+        <v>4748</v>
       </c>
       <c r="B154" s="4">
         <v>3</v>
       </c>
       <c r="C154" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D154" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -10249,16 +10251,16 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="4">
-        <v>4523</v>
+        <v>4761</v>
       </c>
       <c r="B155" s="4">
         <v>3</v>
       </c>
       <c r="C155" s="4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D155" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -10266,35 +10268,31 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="4">
-        <v>4526</v>
-      </c>
-      <c r="B156" s="4">
-        <v>3</v>
-      </c>
-      <c r="C156" s="4">
-        <v>12</v>
-      </c>
-      <c r="D156" s="4">
-        <v>1</v>
-      </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
+      <c r="A156" s="5">
+        <v>4763</v>
+      </c>
+      <c r="B156" s="5">
+        <v>3</v>
+      </c>
+      <c r="C156" s="5">
+        <v>32</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="4">
-        <v>4701</v>
+        <v>4044</v>
       </c>
       <c r="B157" s="4">
         <v>3</v>
       </c>
       <c r="C157" s="4">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D157" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -10303,48 +10301,44 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="5">
-        <v>4719</v>
+        <v>4055</v>
       </c>
       <c r="B158" s="5">
         <v>3</v>
       </c>
       <c r="C158" s="5">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D158" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="4">
-        <v>4651</v>
-      </c>
-      <c r="B159" s="4">
-        <v>3</v>
-      </c>
-      <c r="C159" s="4">
-        <v>17</v>
-      </c>
-      <c r="D159" s="4">
-        <v>1</v>
-      </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
+      <c r="A159" s="5">
+        <v>4065</v>
+      </c>
+      <c r="B159" s="5">
+        <v>3</v>
+      </c>
+      <c r="C159" s="5">
+        <v>35</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="4">
-        <v>4652</v>
+        <v>4067</v>
       </c>
       <c r="B160" s="4">
         <v>3</v>
       </c>
       <c r="C160" s="4">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D160" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10352,35 +10346,31 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="4">
-        <v>4661</v>
-      </c>
-      <c r="B161" s="4">
-        <v>3</v>
-      </c>
-      <c r="C161" s="4">
-        <v>18</v>
-      </c>
-      <c r="D161" s="4">
-        <v>1</v>
-      </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
+      <c r="A161" s="5">
+        <v>4124</v>
+      </c>
+      <c r="B161" s="5">
+        <v>3</v>
+      </c>
+      <c r="C161" s="5">
+        <v>37</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4">
-        <v>4662</v>
+        <v>4084</v>
       </c>
       <c r="B162" s="4">
         <v>3</v>
       </c>
       <c r="C162" s="4">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D162" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -10389,16 +10379,16 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="4">
-        <v>4665</v>
+        <v>3884</v>
       </c>
       <c r="B163" s="4">
         <v>3</v>
       </c>
       <c r="C163" s="4">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D163" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -10407,16 +10397,16 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="4">
-        <v>4676</v>
+        <v>3896</v>
       </c>
       <c r="B164" s="4">
         <v>3</v>
       </c>
       <c r="C164" s="4">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D164" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -10425,16 +10415,16 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="4">
-        <v>4681</v>
+        <v>3929</v>
       </c>
       <c r="B165" s="4">
         <v>3</v>
       </c>
       <c r="C165" s="4">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D165" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -10442,35 +10432,31 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="4">
-        <v>4547</v>
-      </c>
-      <c r="B166" s="4">
-        <v>3</v>
-      </c>
-      <c r="C166" s="4">
-        <v>22</v>
-      </c>
-      <c r="D166" s="4">
-        <v>1</v>
-      </c>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
+      <c r="A166" s="6">
+        <v>3930</v>
+      </c>
+      <c r="B166" s="6">
+        <v>3</v>
+      </c>
+      <c r="C166" s="6">
+        <v>49</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="4">
-        <v>4737</v>
+        <v>3946</v>
       </c>
       <c r="B167" s="4">
         <v>3</v>
       </c>
       <c r="C167" s="4">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D167" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -10478,35 +10464,31 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="4">
-        <v>4740</v>
-      </c>
-      <c r="B168" s="4">
-        <v>3</v>
-      </c>
-      <c r="C168" s="4">
-        <v>29</v>
-      </c>
-      <c r="D168" s="4">
-        <v>1</v>
-      </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
+      <c r="A168" s="5">
+        <v>3955</v>
+      </c>
+      <c r="B168" s="5">
+        <v>3</v>
+      </c>
+      <c r="C168" s="5">
+        <v>52</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="4">
-        <v>4744</v>
+        <v>3965</v>
       </c>
       <c r="B169" s="4">
         <v>3</v>
       </c>
       <c r="C169" s="4">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D169" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -10515,16 +10497,16 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4">
-        <v>4748</v>
+        <v>4019</v>
       </c>
       <c r="B170" s="4">
         <v>3</v>
       </c>
       <c r="C170" s="4">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D170" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -10533,16 +10515,16 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="4">
-        <v>4761</v>
+        <v>4030</v>
       </c>
       <c r="B171" s="4">
         <v>3</v>
       </c>
       <c r="C171" s="4">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D171" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -10551,30 +10533,30 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="5">
-        <v>4763</v>
+        <v>4033</v>
       </c>
       <c r="B172" s="5">
         <v>3</v>
       </c>
       <c r="C172" s="5">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D172" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4">
-        <v>4044</v>
+        <v>4211</v>
       </c>
       <c r="B173" s="4">
         <v>3</v>
       </c>
       <c r="C173" s="4">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
@@ -10583,44 +10565,48 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="5">
-        <v>4055</v>
+        <v>4213</v>
       </c>
       <c r="B174" s="5">
         <v>3</v>
       </c>
       <c r="C174" s="5">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D174" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="5">
-        <v>4065</v>
-      </c>
-      <c r="B175" s="5">
-        <v>3</v>
-      </c>
-      <c r="C175" s="5">
-        <v>35</v>
-      </c>
-      <c r="D175" s="3">
-        <v>1</v>
-      </c>
+      <c r="A175" s="4">
+        <v>4238</v>
+      </c>
+      <c r="B175" s="4">
+        <v>3</v>
+      </c>
+      <c r="C175" s="4">
+        <v>65</v>
+      </c>
+      <c r="D175" s="4">
+        <v>2</v>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4">
-        <v>4067</v>
+        <v>4240</v>
       </c>
       <c r="B176" s="4">
         <v>3</v>
       </c>
       <c r="C176" s="4">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D176" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
@@ -10628,31 +10614,35 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="5">
-        <v>4124</v>
-      </c>
-      <c r="B177" s="5">
-        <v>3</v>
-      </c>
-      <c r="C177" s="5">
-        <v>37</v>
-      </c>
-      <c r="D177" s="3">
-        <v>1</v>
-      </c>
+      <c r="A177" s="4">
+        <v>4247</v>
+      </c>
+      <c r="B177" s="4">
+        <v>3</v>
+      </c>
+      <c r="C177" s="4">
+        <v>66</v>
+      </c>
+      <c r="D177" s="4">
+        <v>2</v>
+      </c>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="4">
-        <v>4084</v>
+        <v>4248</v>
       </c>
       <c r="B178" s="4">
         <v>3</v>
       </c>
       <c r="C178" s="4">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D178" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
@@ -10661,16 +10651,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="4">
-        <v>3884</v>
+        <v>4267</v>
       </c>
       <c r="B179" s="4">
         <v>3</v>
       </c>
       <c r="C179" s="4">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D179" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
@@ -10678,35 +10668,31 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="4">
-        <v>3896</v>
-      </c>
-      <c r="B180" s="4">
-        <v>3</v>
-      </c>
-      <c r="C180" s="4">
-        <v>46</v>
-      </c>
-      <c r="D180" s="4">
-        <v>1</v>
-      </c>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
+      <c r="A180" s="5">
+        <v>4279</v>
+      </c>
+      <c r="B180" s="5">
+        <v>3</v>
+      </c>
+      <c r="C180" s="5">
+        <v>77</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="4">
-        <v>3929</v>
+        <v>4280</v>
       </c>
       <c r="B181" s="4">
         <v>3</v>
       </c>
       <c r="C181" s="4">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D181" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -10714,81 +10700,77 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="6">
-        <v>3930</v>
-      </c>
-      <c r="B182" s="6">
-        <v>3</v>
-      </c>
-      <c r="C182" s="6">
-        <v>49</v>
-      </c>
-      <c r="D182" s="3">
-        <v>1</v>
-      </c>
+      <c r="A182" s="4">
+        <v>4281</v>
+      </c>
+      <c r="B182" s="4">
+        <v>3</v>
+      </c>
+      <c r="C182" s="4">
+        <v>78</v>
+      </c>
+      <c r="D182" s="4">
+        <v>2</v>
+      </c>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="4">
-        <v>3946</v>
-      </c>
-      <c r="B183" s="4">
-        <v>3</v>
-      </c>
-      <c r="C183" s="4">
-        <v>51</v>
-      </c>
-      <c r="D183" s="4">
-        <v>1</v>
-      </c>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
+      <c r="A183" s="5">
+        <v>4290</v>
+      </c>
+      <c r="B183" s="5">
+        <v>3</v>
+      </c>
+      <c r="C183" s="5">
+        <v>78</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="5">
-        <v>3955</v>
+        <v>4344</v>
       </c>
       <c r="B184" s="5">
         <v>3</v>
       </c>
       <c r="C184" s="5">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D184" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="4">
-        <v>3965</v>
-      </c>
-      <c r="B185" s="4">
-        <v>3</v>
-      </c>
-      <c r="C185" s="4">
-        <v>53</v>
-      </c>
-      <c r="D185" s="4">
-        <v>1</v>
-      </c>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
+      <c r="A185" s="5">
+        <v>4392</v>
+      </c>
+      <c r="B185" s="5">
+        <v>3</v>
+      </c>
+      <c r="C185" s="5">
+        <v>85</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="4">
-        <v>4019</v>
+        <v>4410</v>
       </c>
       <c r="B186" s="4">
         <v>3</v>
       </c>
       <c r="C186" s="4">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D186" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -10797,16 +10779,16 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="4">
-        <v>4030</v>
+        <v>4415</v>
       </c>
       <c r="B187" s="4">
         <v>3</v>
       </c>
       <c r="C187" s="4">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D187" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -10814,31 +10796,35 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="5">
-        <v>4033</v>
-      </c>
-      <c r="B188" s="5">
-        <v>3</v>
-      </c>
-      <c r="C188" s="5">
-        <v>60</v>
-      </c>
-      <c r="D188" s="3">
-        <v>1</v>
-      </c>
+      <c r="A188" s="4">
+        <v>4419</v>
+      </c>
+      <c r="B188" s="4">
+        <v>3</v>
+      </c>
+      <c r="C188" s="4">
+        <v>87</v>
+      </c>
+      <c r="D188" s="4">
+        <v>2</v>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="4">
-        <v>4211</v>
+        <v>4428</v>
       </c>
       <c r="B189" s="4">
         <v>3</v>
       </c>
       <c r="C189" s="4">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D189" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
@@ -10846,31 +10832,35 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="5">
-        <v>4213</v>
-      </c>
-      <c r="B190" s="5">
-        <v>3</v>
-      </c>
-      <c r="C190" s="5">
-        <v>63</v>
-      </c>
-      <c r="D190" s="3">
-        <v>1</v>
-      </c>
+      <c r="A190" s="4">
+        <v>4435</v>
+      </c>
+      <c r="B190" s="4">
+        <v>3</v>
+      </c>
+      <c r="C190" s="4">
+        <v>89</v>
+      </c>
+      <c r="D190" s="4">
+        <v>2</v>
+      </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="4">
-        <v>4238</v>
+        <v>4436</v>
       </c>
       <c r="B191" s="4">
         <v>3</v>
       </c>
       <c r="C191" s="4">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D191" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
@@ -10878,53 +10868,45 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="4">
-        <v>4240</v>
-      </c>
-      <c r="B192" s="4">
-        <v>3</v>
-      </c>
-      <c r="C192" s="4">
-        <v>65</v>
-      </c>
-      <c r="D192" s="4">
-        <v>1</v>
-      </c>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
+      <c r="A192" s="5">
+        <v>4440</v>
+      </c>
+      <c r="B192" s="5">
+        <v>3</v>
+      </c>
+      <c r="C192" s="5">
+        <v>89</v>
+      </c>
+      <c r="D192" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="4">
-        <v>4247</v>
-      </c>
-      <c r="B193" s="4">
-        <v>3</v>
-      </c>
-      <c r="C193" s="4">
-        <v>66</v>
-      </c>
-      <c r="D193" s="4">
-        <v>1</v>
-      </c>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
+      <c r="A193" s="5">
+        <v>4458</v>
+      </c>
+      <c r="B193" s="5">
+        <v>3</v>
+      </c>
+      <c r="C193" s="5">
+        <v>91</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="4">
-        <v>4248</v>
+        <v>4461</v>
       </c>
       <c r="B194" s="4">
         <v>3</v>
       </c>
       <c r="C194" s="4">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D194" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
@@ -10932,49 +10914,45 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="4">
-        <v>4267</v>
-      </c>
-      <c r="B195" s="4">
-        <v>3</v>
-      </c>
-      <c r="C195" s="4">
-        <v>76</v>
-      </c>
-      <c r="D195" s="4">
-        <v>1</v>
-      </c>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
+      <c r="A195" s="5">
+        <v>4463</v>
+      </c>
+      <c r="B195" s="5">
+        <v>3</v>
+      </c>
+      <c r="C195" s="5">
+        <v>92</v>
+      </c>
+      <c r="D195" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="5">
-        <v>4279</v>
+        <v>4478</v>
       </c>
       <c r="B196" s="5">
         <v>3</v>
       </c>
       <c r="C196" s="5">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D196" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4">
-        <v>4280</v>
+        <v>4479</v>
       </c>
       <c r="B197" s="4">
         <v>3</v>
       </c>
       <c r="C197" s="4">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D197" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
@@ -10983,16 +10961,16 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="4">
-        <v>4281</v>
+        <v>3727</v>
       </c>
       <c r="B198" s="4">
         <v>3</v>
       </c>
       <c r="C198" s="4">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D198" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
@@ -11000,59 +10978,71 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="5">
-        <v>4290</v>
-      </c>
-      <c r="B199" s="5">
-        <v>3</v>
-      </c>
-      <c r="C199" s="5">
-        <v>78</v>
-      </c>
-      <c r="D199" s="3">
-        <v>1</v>
-      </c>
+      <c r="A199" s="4">
+        <v>3752</v>
+      </c>
+      <c r="B199" s="4">
+        <v>3</v>
+      </c>
+      <c r="C199" s="4">
+        <v>98</v>
+      </c>
+      <c r="D199" s="4">
+        <v>2</v>
+      </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="5">
-        <v>4344</v>
-      </c>
-      <c r="B200" s="5">
-        <v>3</v>
-      </c>
-      <c r="C200" s="5">
-        <v>80</v>
-      </c>
-      <c r="D200" s="3">
-        <v>1</v>
-      </c>
+      <c r="A200" s="4">
+        <v>3753</v>
+      </c>
+      <c r="B200" s="4">
+        <v>3</v>
+      </c>
+      <c r="C200" s="4">
+        <v>98</v>
+      </c>
+      <c r="D200" s="4">
+        <v>2</v>
+      </c>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="5">
-        <v>4392</v>
-      </c>
-      <c r="B201" s="5">
-        <v>3</v>
-      </c>
-      <c r="C201" s="5">
-        <v>85</v>
-      </c>
-      <c r="D201" s="3">
-        <v>1</v>
-      </c>
+      <c r="A201" s="4">
+        <v>3758</v>
+      </c>
+      <c r="B201" s="4">
+        <v>3</v>
+      </c>
+      <c r="C201" s="4">
+        <v>98</v>
+      </c>
+      <c r="D201" s="4">
+        <v>2</v>
+      </c>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4">
-        <v>4410</v>
+        <v>3759</v>
       </c>
       <c r="B202" s="4">
         <v>3</v>
       </c>
       <c r="C202" s="4">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D202" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
@@ -11061,16 +11051,16 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="4">
-        <v>4415</v>
+        <v>3771</v>
       </c>
       <c r="B203" s="4">
         <v>3</v>
       </c>
       <c r="C203" s="4">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D203" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
@@ -11079,16 +11069,16 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="4">
-        <v>4419</v>
+        <v>3791</v>
       </c>
       <c r="B204" s="4">
         <v>3</v>
       </c>
       <c r="C204" s="4">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D204" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
@@ -11097,16 +11087,16 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="4">
-        <v>4428</v>
+        <v>3873</v>
       </c>
       <c r="B205" s="4">
         <v>3</v>
       </c>
       <c r="C205" s="4">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D205" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
@@ -11114,81 +11104,77 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="4">
-        <v>4435</v>
-      </c>
-      <c r="B206" s="4">
-        <v>3</v>
-      </c>
-      <c r="C206" s="4">
-        <v>89</v>
-      </c>
-      <c r="D206" s="4">
-        <v>1</v>
-      </c>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
+      <c r="A206" s="5">
+        <v>3831</v>
+      </c>
+      <c r="B206" s="5">
+        <v>3</v>
+      </c>
+      <c r="C206" s="5">
+        <v>110</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="4">
-        <v>4436</v>
-      </c>
-      <c r="B207" s="4">
-        <v>3</v>
-      </c>
-      <c r="C207" s="4">
-        <v>89</v>
-      </c>
-      <c r="D207" s="4">
-        <v>1</v>
-      </c>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
+      <c r="A207" s="5">
+        <v>3839</v>
+      </c>
+      <c r="B207" s="5">
+        <v>3</v>
+      </c>
+      <c r="C207" s="5">
+        <v>110</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="5">
-        <v>4440</v>
+        <v>3572</v>
       </c>
       <c r="B208" s="5">
         <v>3</v>
       </c>
       <c r="C208" s="5">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D208" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="5">
-        <v>4458</v>
-      </c>
-      <c r="B209" s="5">
-        <v>3</v>
-      </c>
-      <c r="C209" s="5">
-        <v>91</v>
-      </c>
-      <c r="D209" s="3">
-        <v>1</v>
-      </c>
+      <c r="A209" s="4">
+        <v>3615</v>
+      </c>
+      <c r="B209" s="4">
+        <v>3</v>
+      </c>
+      <c r="C209" s="4">
+        <v>116</v>
+      </c>
+      <c r="D209" s="4">
+        <v>2</v>
+      </c>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="4">
-        <v>4461</v>
+        <v>3620</v>
       </c>
       <c r="B210" s="4">
         <v>3</v>
       </c>
       <c r="C210" s="4">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D210" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
@@ -11196,45 +11182,53 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="5">
-        <v>4463</v>
-      </c>
-      <c r="B211" s="5">
-        <v>3</v>
-      </c>
-      <c r="C211" s="5">
-        <v>92</v>
-      </c>
-      <c r="D211" s="3">
-        <v>1</v>
-      </c>
+      <c r="A211" s="4">
+        <v>3621</v>
+      </c>
+      <c r="B211" s="4">
+        <v>3</v>
+      </c>
+      <c r="C211" s="4">
+        <v>117</v>
+      </c>
+      <c r="D211" s="4">
+        <v>2</v>
+      </c>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="5">
-        <v>4478</v>
-      </c>
-      <c r="B212" s="5">
-        <v>3</v>
-      </c>
-      <c r="C212" s="5">
-        <v>93</v>
-      </c>
-      <c r="D212" s="3">
-        <v>1</v>
-      </c>
+      <c r="A212" s="4">
+        <v>3630</v>
+      </c>
+      <c r="B212" s="4">
+        <v>3</v>
+      </c>
+      <c r="C212" s="4">
+        <v>117</v>
+      </c>
+      <c r="D212" s="4">
+        <v>2</v>
+      </c>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="4">
-        <v>4479</v>
+        <v>3632</v>
       </c>
       <c r="B213" s="4">
         <v>3</v>
       </c>
       <c r="C213" s="4">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D213" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
@@ -11243,16 +11237,16 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="4">
-        <v>3727</v>
+        <v>3637</v>
       </c>
       <c r="B214" s="4">
         <v>3</v>
       </c>
       <c r="C214" s="4">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D214" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
@@ -11261,16 +11255,16 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="4">
-        <v>3752</v>
+        <v>3690</v>
       </c>
       <c r="B215" s="4">
         <v>3</v>
       </c>
       <c r="C215" s="4">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D215" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
@@ -11279,16 +11273,16 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="4">
-        <v>3753</v>
+        <v>3694</v>
       </c>
       <c r="B216" s="4">
         <v>3</v>
       </c>
       <c r="C216" s="4">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D216" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
@@ -11297,16 +11291,16 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="4">
-        <v>3758</v>
+        <v>3696</v>
       </c>
       <c r="B217" s="4">
         <v>3</v>
       </c>
       <c r="C217" s="4">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D217" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
@@ -11315,16 +11309,16 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="4">
-        <v>3759</v>
+        <v>3711</v>
       </c>
       <c r="B218" s="4">
         <v>3</v>
       </c>
       <c r="C218" s="4">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D218" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
@@ -11333,16 +11327,16 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="4">
-        <v>3771</v>
+        <v>3714</v>
       </c>
       <c r="B219" s="4">
         <v>3</v>
       </c>
       <c r="C219" s="4">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D219" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
@@ -11351,16 +11345,16 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="4">
-        <v>3791</v>
+        <v>3643</v>
       </c>
       <c r="B220" s="4">
         <v>3</v>
       </c>
       <c r="C220" s="4">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D220" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
@@ -11369,16 +11363,16 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="4">
-        <v>3873</v>
+        <v>3652</v>
       </c>
       <c r="B221" s="4">
         <v>3</v>
       </c>
       <c r="C221" s="4">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D221" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
@@ -11386,95 +11380,99 @@
       <c r="H221" s="4"/>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="5">
-        <v>3831</v>
-      </c>
-      <c r="B222" s="5">
-        <v>3</v>
-      </c>
-      <c r="C222" s="5">
-        <v>110</v>
-      </c>
-      <c r="D222" s="3">
-        <v>1</v>
-      </c>
+      <c r="A222" s="4">
+        <v>3653</v>
+      </c>
+      <c r="B222" s="4">
+        <v>3</v>
+      </c>
+      <c r="C222" s="4">
+        <v>124</v>
+      </c>
+      <c r="D222" s="4">
+        <v>2</v>
+      </c>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="5">
-        <v>3839</v>
-      </c>
-      <c r="B223" s="5">
-        <v>3</v>
-      </c>
-      <c r="C223" s="5">
-        <v>110</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A223" s="4">
+        <v>3655</v>
+      </c>
+      <c r="B223" s="4">
+        <v>3</v>
+      </c>
+      <c r="C223" s="4">
+        <v>124</v>
+      </c>
+      <c r="D223" s="4">
+        <v>2</v>
+      </c>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="5">
-        <v>3572</v>
-      </c>
-      <c r="B224" s="5">
-        <v>3</v>
-      </c>
-      <c r="C224" s="5">
-        <v>112</v>
-      </c>
-      <c r="D224" s="3">
-        <v>1</v>
-      </c>
+      <c r="A224" s="4">
+        <v>3656</v>
+      </c>
+      <c r="B224" s="4">
+        <v>3</v>
+      </c>
+      <c r="C224" s="4">
+        <v>124</v>
+      </c>
+      <c r="D224" s="4">
+        <v>2</v>
+      </c>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="4">
-        <v>3615</v>
-      </c>
-      <c r="B225" s="4">
-        <v>3</v>
-      </c>
-      <c r="C225" s="4">
-        <v>116</v>
-      </c>
-      <c r="D225" s="4">
-        <v>1</v>
-      </c>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
+      <c r="A225" s="5">
+        <v>3667</v>
+      </c>
+      <c r="B225" s="5">
+        <v>3</v>
+      </c>
+      <c r="C225" s="5">
+        <v>125</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="4">
-        <v>3620</v>
-      </c>
-      <c r="B226" s="4">
-        <v>3</v>
-      </c>
-      <c r="C226" s="4">
-        <v>116</v>
-      </c>
-      <c r="D226" s="4">
-        <v>1</v>
-      </c>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
+      <c r="A226" s="5">
+        <v>3670</v>
+      </c>
+      <c r="B226" s="5">
+        <v>3</v>
+      </c>
+      <c r="C226" s="5">
+        <v>125</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="4">
-        <v>3621</v>
+        <v>3671</v>
       </c>
       <c r="B227" s="4">
         <v>3</v>
       </c>
       <c r="C227" s="4">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D227" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
@@ -11483,16 +11481,16 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="4">
-        <v>3630</v>
+        <v>3672</v>
       </c>
       <c r="B228" s="4">
         <v>3</v>
       </c>
       <c r="C228" s="4">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D228" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
@@ -11501,16 +11499,16 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="4">
-        <v>3632</v>
+        <v>3673</v>
       </c>
       <c r="B229" s="4">
         <v>3</v>
       </c>
       <c r="C229" s="4">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D229" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
@@ -11519,16 +11517,16 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="4">
-        <v>3637</v>
+        <v>3674</v>
       </c>
       <c r="B230" s="4">
         <v>3</v>
       </c>
       <c r="C230" s="4">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D230" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
@@ -11537,16 +11535,16 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="4">
-        <v>3690</v>
+        <v>3336</v>
       </c>
       <c r="B231" s="4">
         <v>3</v>
       </c>
       <c r="C231" s="4">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D231" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
@@ -11554,53 +11552,45 @@
       <c r="H231" s="4"/>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="4">
-        <v>3694</v>
-      </c>
-      <c r="B232" s="4">
-        <v>3</v>
-      </c>
-      <c r="C232" s="4">
-        <v>120</v>
-      </c>
-      <c r="D232" s="4">
-        <v>1</v>
-      </c>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
-      <c r="G232" s="4"/>
-      <c r="H232" s="4"/>
+      <c r="A232" s="5">
+        <v>3359</v>
+      </c>
+      <c r="B232" s="5">
+        <v>3</v>
+      </c>
+      <c r="C232" s="5">
+        <v>130</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="4">
-        <v>3696</v>
-      </c>
-      <c r="B233" s="4">
-        <v>3</v>
-      </c>
-      <c r="C233" s="4">
-        <v>120</v>
-      </c>
-      <c r="D233" s="4">
-        <v>1</v>
-      </c>
-      <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
-      <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
+      <c r="A233" s="5">
+        <v>3361</v>
+      </c>
+      <c r="B233" s="5">
+        <v>3</v>
+      </c>
+      <c r="C233" s="5">
+        <v>131</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="4">
-        <v>3711</v>
+        <v>3382</v>
       </c>
       <c r="B234" s="4">
         <v>3</v>
       </c>
       <c r="C234" s="4">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D234" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
@@ -11608,53 +11598,45 @@
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="4">
-        <v>3714</v>
-      </c>
-      <c r="B235" s="4">
-        <v>3</v>
-      </c>
-      <c r="C235" s="4">
-        <v>122</v>
-      </c>
-      <c r="D235" s="4">
-        <v>1</v>
-      </c>
-      <c r="E235" s="4"/>
-      <c r="F235" s="4"/>
-      <c r="G235" s="4"/>
-      <c r="H235" s="4"/>
+      <c r="A235" s="5">
+        <v>3392</v>
+      </c>
+      <c r="B235" s="5">
+        <v>3</v>
+      </c>
+      <c r="C235" s="5">
+        <v>134</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="4">
-        <v>3643</v>
-      </c>
-      <c r="B236" s="4">
-        <v>3</v>
-      </c>
-      <c r="C236" s="4">
-        <v>123</v>
-      </c>
-      <c r="D236" s="4">
-        <v>1</v>
-      </c>
-      <c r="E236" s="4"/>
-      <c r="F236" s="4"/>
-      <c r="G236" s="4"/>
-      <c r="H236" s="4"/>
+      <c r="A236" s="5">
+        <v>3289</v>
+      </c>
+      <c r="B236" s="5">
+        <v>3</v>
+      </c>
+      <c r="C236" s="5">
+        <v>135</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="4">
-        <v>3652</v>
+        <v>3293</v>
       </c>
       <c r="B237" s="4">
         <v>3</v>
       </c>
       <c r="C237" s="4">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D237" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
@@ -11663,16 +11645,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="4">
-        <v>3653</v>
+        <v>3298</v>
       </c>
       <c r="B238" s="4">
         <v>3</v>
       </c>
       <c r="C238" s="4">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D238" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
@@ -11680,81 +11662,77 @@
       <c r="H238" s="4"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="4">
-        <v>3655</v>
-      </c>
-      <c r="B239" s="4">
-        <v>3</v>
-      </c>
-      <c r="C239" s="4">
-        <v>124</v>
-      </c>
-      <c r="D239" s="4">
-        <v>1</v>
-      </c>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
-      <c r="G239" s="4"/>
-      <c r="H239" s="4"/>
+      <c r="A239" s="5">
+        <v>3302</v>
+      </c>
+      <c r="B239" s="5">
+        <v>3</v>
+      </c>
+      <c r="C239" s="5">
+        <v>137</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="4">
-        <v>3656</v>
-      </c>
-      <c r="B240" s="4">
-        <v>3</v>
-      </c>
-      <c r="C240" s="4">
-        <v>124</v>
-      </c>
-      <c r="D240" s="4">
-        <v>1</v>
-      </c>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
+      <c r="A240" s="5">
+        <v>3303</v>
+      </c>
+      <c r="B240" s="5">
+        <v>3</v>
+      </c>
+      <c r="C240" s="5">
+        <v>137</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="5">
-        <v>3667</v>
+        <v>3490</v>
       </c>
       <c r="B241" s="5">
         <v>3</v>
       </c>
       <c r="C241" s="5">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D241" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="5">
-        <v>3670</v>
-      </c>
-      <c r="B242" s="5">
-        <v>3</v>
-      </c>
-      <c r="C242" s="5">
-        <v>125</v>
-      </c>
-      <c r="D242" s="3">
-        <v>1</v>
-      </c>
+      <c r="A242" s="4">
+        <v>3491</v>
+      </c>
+      <c r="B242" s="4">
+        <v>3</v>
+      </c>
+      <c r="C242" s="4">
+        <v>144</v>
+      </c>
+      <c r="D242" s="4">
+        <v>2</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="4">
-        <v>3671</v>
+        <v>3508</v>
       </c>
       <c r="B243" s="4">
         <v>3</v>
       </c>
       <c r="C243" s="4">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D243" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -11763,16 +11741,16 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="4">
-        <v>3672</v>
+        <v>3524</v>
       </c>
       <c r="B244" s="4">
         <v>3</v>
       </c>
       <c r="C244" s="4">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D244" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
@@ -11781,16 +11759,16 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="4">
-        <v>3673</v>
+        <v>3549</v>
       </c>
       <c r="B245" s="4">
         <v>3</v>
       </c>
       <c r="C245" s="4">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D245" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
@@ -11798,35 +11776,31 @@
       <c r="H245" s="4"/>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="4">
-        <v>3674</v>
-      </c>
-      <c r="B246" s="4">
-        <v>3</v>
-      </c>
-      <c r="C246" s="4">
-        <v>126</v>
-      </c>
-      <c r="D246" s="4">
-        <v>1</v>
-      </c>
-      <c r="E246" s="4"/>
-      <c r="F246" s="4"/>
-      <c r="G246" s="4"/>
-      <c r="H246" s="4"/>
+      <c r="A246" s="5">
+        <v>3454</v>
+      </c>
+      <c r="B246" s="5">
+        <v>3</v>
+      </c>
+      <c r="C246" s="5">
+        <v>152</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="4">
-        <v>3336</v>
+        <v>3459</v>
       </c>
       <c r="B247" s="4">
         <v>3</v>
       </c>
       <c r="C247" s="4">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D247" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
@@ -11835,44 +11809,48 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="5">
-        <v>3359</v>
+        <v>3463</v>
       </c>
       <c r="B248" s="5">
         <v>3</v>
       </c>
       <c r="C248" s="5">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D248" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="5">
-        <v>3361</v>
-      </c>
-      <c r="B249" s="5">
-        <v>3</v>
-      </c>
-      <c r="C249" s="5">
-        <v>131</v>
-      </c>
-      <c r="D249" s="3">
-        <v>1</v>
-      </c>
+      <c r="A249" s="4">
+        <v>3402</v>
+      </c>
+      <c r="B249" s="4">
+        <v>3</v>
+      </c>
+      <c r="C249" s="4">
+        <v>155</v>
+      </c>
+      <c r="D249" s="4">
+        <v>2</v>
+      </c>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="4">
-        <v>3382</v>
+        <v>3404</v>
       </c>
       <c r="B250" s="4">
         <v>3</v>
       </c>
       <c r="C250" s="4">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D250" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
@@ -11880,45 +11858,53 @@
       <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="5">
-        <v>3392</v>
-      </c>
-      <c r="B251" s="5">
-        <v>3</v>
-      </c>
-      <c r="C251" s="5">
-        <v>134</v>
-      </c>
-      <c r="D251" s="3">
-        <v>1</v>
-      </c>
+      <c r="A251" s="4">
+        <v>3407</v>
+      </c>
+      <c r="B251" s="4">
+        <v>3</v>
+      </c>
+      <c r="C251" s="4">
+        <v>155</v>
+      </c>
+      <c r="D251" s="4">
+        <v>2</v>
+      </c>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="5">
-        <v>3289</v>
-      </c>
-      <c r="B252" s="5">
-        <v>3</v>
-      </c>
-      <c r="C252" s="5">
-        <v>135</v>
-      </c>
-      <c r="D252" s="3">
-        <v>1</v>
-      </c>
+      <c r="A252" s="4">
+        <v>3421</v>
+      </c>
+      <c r="B252" s="4">
+        <v>3</v>
+      </c>
+      <c r="C252" s="4">
+        <v>157</v>
+      </c>
+      <c r="D252" s="4">
+        <v>2</v>
+      </c>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="4">
-        <v>3293</v>
+        <v>4813</v>
       </c>
       <c r="B253" s="4">
         <v>3</v>
       </c>
       <c r="C253" s="4">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D253" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
@@ -11926,77 +11912,85 @@
       <c r="H253" s="4"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="4">
-        <v>3298</v>
-      </c>
-      <c r="B254" s="4">
-        <v>3</v>
-      </c>
-      <c r="C254" s="4">
-        <v>136</v>
-      </c>
-      <c r="D254" s="4">
-        <v>1</v>
-      </c>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
+      <c r="A254" s="5">
+        <v>4825</v>
+      </c>
+      <c r="B254" s="5">
+        <v>3</v>
+      </c>
+      <c r="C254" s="5">
+        <v>160</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="5">
-        <v>3302</v>
-      </c>
-      <c r="B255" s="5">
-        <v>3</v>
-      </c>
-      <c r="C255" s="5">
-        <v>137</v>
-      </c>
-      <c r="D255" s="3">
-        <v>1</v>
-      </c>
+      <c r="A255" s="4">
+        <v>4829</v>
+      </c>
+      <c r="B255" s="4">
+        <v>3</v>
+      </c>
+      <c r="C255" s="4">
+        <v>160</v>
+      </c>
+      <c r="D255" s="4">
+        <v>2</v>
+      </c>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="5">
-        <v>3303</v>
-      </c>
-      <c r="B256" s="5">
-        <v>3</v>
-      </c>
-      <c r="C256" s="5">
-        <v>137</v>
-      </c>
-      <c r="D256" s="3">
-        <v>1</v>
-      </c>
+      <c r="A256" s="4">
+        <v>4841</v>
+      </c>
+      <c r="B256" s="4">
+        <v>3</v>
+      </c>
+      <c r="C256" s="4">
+        <v>162</v>
+      </c>
+      <c r="D256" s="4">
+        <v>2</v>
+      </c>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="5">
-        <v>3490</v>
-      </c>
-      <c r="B257" s="5">
-        <v>3</v>
-      </c>
-      <c r="C257" s="5">
-        <v>143</v>
-      </c>
-      <c r="D257" s="3">
-        <v>1</v>
-      </c>
+      <c r="A257" s="4">
+        <v>4849</v>
+      </c>
+      <c r="B257" s="4">
+        <v>3</v>
+      </c>
+      <c r="C257" s="4">
+        <v>162</v>
+      </c>
+      <c r="D257" s="4">
+        <v>2</v>
+      </c>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="4">
-        <v>3491</v>
+        <v>4892</v>
       </c>
       <c r="B258" s="4">
         <v>3</v>
       </c>
       <c r="C258" s="4">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D258" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
@@ -12005,16 +11999,16 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="4">
-        <v>3508</v>
+        <v>4893</v>
       </c>
       <c r="B259" s="4">
         <v>3</v>
       </c>
       <c r="C259" s="4">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D259" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
@@ -12023,16 +12017,16 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="4">
-        <v>3524</v>
+        <v>4908</v>
       </c>
       <c r="B260" s="4">
         <v>3</v>
       </c>
       <c r="C260" s="4">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D260" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
@@ -12041,16 +12035,16 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="4">
-        <v>3549</v>
+        <v>4959</v>
       </c>
       <c r="B261" s="4">
         <v>3</v>
       </c>
       <c r="C261" s="4">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D261" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
@@ -12058,31 +12052,35 @@
       <c r="H261" s="4"/>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="5">
-        <v>3454</v>
-      </c>
-      <c r="B262" s="5">
-        <v>3</v>
-      </c>
-      <c r="C262" s="5">
-        <v>152</v>
-      </c>
-      <c r="D262" s="3">
-        <v>1</v>
-      </c>
+      <c r="A262" s="4">
+        <v>4961</v>
+      </c>
+      <c r="B262" s="4">
+        <v>3</v>
+      </c>
+      <c r="C262" s="4">
+        <v>174</v>
+      </c>
+      <c r="D262" s="4">
+        <v>2</v>
+      </c>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="4">
-        <v>3459</v>
+        <v>5030</v>
       </c>
       <c r="B263" s="4">
         <v>3</v>
       </c>
       <c r="C263" s="4">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D263" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
@@ -12090,418 +12088,138 @@
       <c r="H263" s="4"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="5">
-        <v>3463</v>
-      </c>
-      <c r="B264" s="5">
-        <v>3</v>
-      </c>
-      <c r="C264" s="5">
-        <v>153</v>
-      </c>
-      <c r="D264" s="3">
-        <v>1</v>
-      </c>
+      <c r="A264" s="4">
+        <v>5047</v>
+      </c>
+      <c r="B264" s="4">
+        <v>3</v>
+      </c>
+      <c r="C264" s="4">
+        <v>182</v>
+      </c>
+      <c r="D264" s="4">
+        <v>2</v>
+      </c>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="4">
-        <v>3402</v>
-      </c>
-      <c r="B265" s="4">
-        <v>3</v>
-      </c>
-      <c r="C265" s="4">
-        <v>155</v>
-      </c>
-      <c r="D265" s="4">
-        <v>1</v>
-      </c>
-      <c r="E265" s="4"/>
-      <c r="F265" s="4"/>
-      <c r="G265" s="4"/>
-      <c r="H265" s="4"/>
+      <c r="A265"/>
+      <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265"/>
+      <c r="G265"/>
+      <c r="H265"/>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="4">
-        <v>3404</v>
-      </c>
-      <c r="B266" s="4">
-        <v>3</v>
-      </c>
-      <c r="C266" s="4">
-        <v>155</v>
-      </c>
-      <c r="D266" s="4">
-        <v>1</v>
-      </c>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
-      <c r="G266" s="4"/>
-      <c r="H266" s="4"/>
+      <c r="A266"/>
+      <c r="B266"/>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266"/>
+      <c r="H266"/>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="4">
-        <v>3407</v>
-      </c>
-      <c r="B267" s="4">
-        <v>3</v>
-      </c>
-      <c r="C267" s="4">
-        <v>155</v>
-      </c>
-      <c r="D267" s="4">
-        <v>1</v>
-      </c>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
-      <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
+      <c r="A267"/>
+      <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267"/>
+      <c r="G267"/>
+      <c r="H267"/>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="4">
-        <v>3421</v>
-      </c>
-      <c r="B268" s="4">
-        <v>3</v>
-      </c>
-      <c r="C268" s="4">
-        <v>157</v>
-      </c>
-      <c r="D268" s="4">
-        <v>1</v>
-      </c>
-      <c r="E268" s="4"/>
-      <c r="F268" s="4"/>
-      <c r="G268" s="4"/>
-      <c r="H268" s="4"/>
+      <c r="A268"/>
+      <c r="B268"/>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
+      <c r="G268"/>
+      <c r="H268"/>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="4">
-        <v>4813</v>
-      </c>
-      <c r="B269" s="4">
-        <v>3</v>
-      </c>
-      <c r="C269" s="4">
-        <v>159</v>
-      </c>
-      <c r="D269" s="4">
-        <v>1</v>
-      </c>
-      <c r="E269" s="4"/>
-      <c r="F269" s="4"/>
-      <c r="G269" s="4"/>
-      <c r="H269" s="4"/>
+      <c r="A269"/>
+      <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269"/>
+      <c r="G269"/>
+      <c r="H269"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="5">
-        <v>4825</v>
-      </c>
-      <c r="B270" s="5">
-        <v>3</v>
-      </c>
-      <c r="C270" s="5">
-        <v>160</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A270"/>
+      <c r="B270"/>
+      <c r="C270"/>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270"/>
+      <c r="G270"/>
+      <c r="H270"/>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="4">
-        <v>4829</v>
-      </c>
-      <c r="B271" s="4">
-        <v>3</v>
-      </c>
-      <c r="C271" s="4">
-        <v>160</v>
-      </c>
-      <c r="D271" s="4">
-        <v>1</v>
-      </c>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="4"/>
-      <c r="H271" s="4"/>
+      <c r="A271"/>
+      <c r="B271"/>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271"/>
+      <c r="H271"/>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="4">
-        <v>4841</v>
-      </c>
-      <c r="B272" s="4">
-        <v>3</v>
-      </c>
-      <c r="C272" s="4">
-        <v>162</v>
-      </c>
-      <c r="D272" s="4">
-        <v>1</v>
-      </c>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
+      <c r="A272"/>
+      <c r="B272"/>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272"/>
+      <c r="G272"/>
+      <c r="H272"/>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="4">
-        <v>4849</v>
-      </c>
-      <c r="B273" s="4">
-        <v>3</v>
-      </c>
-      <c r="C273" s="4">
-        <v>162</v>
-      </c>
-      <c r="D273" s="4">
-        <v>1</v>
-      </c>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
+      <c r="A273"/>
+      <c r="B273"/>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273"/>
+      <c r="G273"/>
+      <c r="H273"/>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="4">
-        <v>4892</v>
-      </c>
-      <c r="B274" s="4">
-        <v>3</v>
-      </c>
-      <c r="C274" s="4">
-        <v>167</v>
-      </c>
-      <c r="D274" s="4">
-        <v>1</v>
-      </c>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="4"/>
-      <c r="H274" s="4"/>
+      <c r="A274"/>
+      <c r="B274"/>
+      <c r="C274"/>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274"/>
+      <c r="G274"/>
+      <c r="H274"/>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="4">
-        <v>4893</v>
-      </c>
-      <c r="B275" s="4">
-        <v>3</v>
-      </c>
-      <c r="C275" s="4">
-        <v>167</v>
-      </c>
-      <c r="D275" s="4">
-        <v>1</v>
-      </c>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
-      <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="4">
-        <v>4908</v>
-      </c>
-      <c r="B276" s="4">
-        <v>3</v>
-      </c>
-      <c r="C276" s="4">
-        <v>168</v>
-      </c>
-      <c r="D276" s="4">
-        <v>1</v>
-      </c>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="4">
-        <v>4959</v>
-      </c>
-      <c r="B277" s="4">
-        <v>3</v>
-      </c>
-      <c r="C277" s="4">
-        <v>173</v>
-      </c>
-      <c r="D277" s="4">
-        <v>1</v>
-      </c>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
-      <c r="G277" s="4"/>
-      <c r="H277" s="4"/>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="4">
-        <v>4961</v>
-      </c>
-      <c r="B278" s="4">
-        <v>3</v>
-      </c>
-      <c r="C278" s="4">
-        <v>174</v>
-      </c>
-      <c r="D278" s="4">
-        <v>1</v>
-      </c>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
-      <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="4">
-        <v>5030</v>
-      </c>
-      <c r="B279" s="4">
-        <v>3</v>
-      </c>
-      <c r="C279" s="4">
-        <v>180</v>
-      </c>
-      <c r="D279" s="4">
-        <v>1</v>
-      </c>
-      <c r="E279" s="4"/>
-      <c r="F279" s="4"/>
-      <c r="G279" s="4"/>
-      <c r="H279" s="4"/>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="4">
-        <v>5047</v>
-      </c>
-      <c r="B280" s="4">
-        <v>3</v>
-      </c>
-      <c r="C280" s="4">
-        <v>182</v>
-      </c>
-      <c r="D280" s="4">
-        <v>1</v>
-      </c>
-      <c r="E280" s="4"/>
-      <c r="F280" s="4"/>
-      <c r="G280" s="4"/>
-      <c r="H280" s="4"/>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281"/>
-      <c r="B281"/>
-      <c r="C281"/>
-      <c r="D281"/>
-      <c r="E281"/>
-      <c r="F281"/>
-      <c r="G281"/>
-      <c r="H281"/>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282"/>
-      <c r="B282"/>
-      <c r="C282"/>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282"/>
-      <c r="G282"/>
-      <c r="H282"/>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283"/>
-      <c r="B283"/>
-      <c r="C283"/>
-      <c r="D283"/>
-      <c r="E283"/>
-      <c r="F283"/>
-      <c r="G283"/>
-      <c r="H283"/>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284"/>
-      <c r="B284"/>
-      <c r="C284"/>
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284"/>
-      <c r="G284"/>
-      <c r="H284"/>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285"/>
-      <c r="B285"/>
-      <c r="C285"/>
-      <c r="D285"/>
-      <c r="E285"/>
-      <c r="F285"/>
-      <c r="G285"/>
-      <c r="H285"/>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="A286"/>
-      <c r="B286"/>
-      <c r="C286"/>
-      <c r="D286"/>
-      <c r="E286"/>
-      <c r="F286"/>
-      <c r="G286"/>
-      <c r="H286"/>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287"/>
-      <c r="B287"/>
-      <c r="C287"/>
-      <c r="D287"/>
-      <c r="E287"/>
-      <c r="F287"/>
-      <c r="G287"/>
-      <c r="H287"/>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288"/>
-      <c r="B288"/>
-      <c r="C288"/>
-      <c r="D288"/>
-      <c r="E288"/>
-      <c r="F288"/>
-      <c r="G288"/>
-      <c r="H288"/>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289"/>
-      <c r="B289"/>
-      <c r="C289"/>
-      <c r="D289"/>
-      <c r="E289"/>
-      <c r="F289"/>
-      <c r="G289"/>
-      <c r="H289"/>
-    </row>
-    <row r="290" spans="1:8">
-      <c r="A290"/>
-      <c r="B290"/>
-      <c r="C290"/>
-      <c r="D290"/>
-      <c r="E290"/>
-      <c r="F290"/>
-      <c r="G290"/>
-      <c r="H290"/>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291"/>
-      <c r="B291"/>
-      <c r="C291"/>
-      <c r="D291"/>
-      <c r="E291"/>
-      <c r="F291"/>
-      <c r="G291"/>
-      <c r="H291"/>
+      <c r="A275"/>
+      <c r="B275"/>
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275"/>
+      <c r="G275"/>
+      <c r="H275"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H291">
-    <sortCondition ref="B2:B291"/>
-    <sortCondition ref="C2:C291"/>
-    <sortCondition ref="A2:A291"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H275">
+    <sortCondition ref="B2:B275"/>
+    <sortCondition ref="C2:C275"/>
+    <sortCondition ref="A2:A275"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
